--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1996.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1996.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.005*"foreign" + 0.005*"exchange" + 0.005*"bank" + 0.004*"currency" + 0.004*"export" + 0.004*"account" + 0.004*"import" + 0.004*"may" + 0.003*"percent" + 0.003*"resident"</t>
-  </si>
-  <si>
-    <t>0.024*"foreign" + 0.020*"exchange" + 0.019*"bank" + 0.015*"import" + 0.015*"may" + 0.012*"currency" + 0.012*"export" + 0.011*"account" + 0.009*"rate" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.019*"foreign" + 0.019*"exchange" + 0.018*"bank" + 0.014*"import" + 0.014*"may" + 0.013*"account" + 0.012*"currency" + 0.010*"rate" + 0.008*"percent" + 0.008*"resident"</t>
-  </si>
-  <si>
-    <t>0.010*"foreign" + 0.009*"exchange" + 0.005*"bank" + 0.005*"may" + 0.005*"account" + 0.004*"import" + 0.004*"currency" + 0.004*"export" + 0.004*"payment" + 0.004*"percent"</t>
-  </si>
-  <si>
-    <t>0.001*"foreign" + 0.001*"exchange" + 0.001*"bank" + 0.001*"may" + 0.001*"import" + 0.001*"currency" + 0.001*"export" + 0.001*"account" + 0.001*"percent" + 0.001*"rate"</t>
+    <t>0.047*"account" + 0.044*"foreign" + 0.042*"may" + 0.041*"currency" + 0.024*"nonresident" + 0.024*"resident" + 0.022*"fund" + 0.021*"payment" + 0.016*"international" + 0.016*"bank"</t>
+  </si>
+  <si>
+    <t>0.063*"import" + 0.058*"export" + 0.029*"gold" + 0.021*"require" + 0.019*"license" + 0.017*"product" + 0.015*"ministry" + 0.015*"good" + 0.015*"dollar" + 0.014*"issue"</t>
+  </si>
+  <si>
+    <t>0.025*"country" + 0.018*"agreement" + 0.015*"currency" + 0.014*"abroad" + 0.014*"person" + 0.009*"transfer" + 0.008*"capital" + 0.008*"include" + 0.008*"union" + 0.008*"year"</t>
+  </si>
+  <si>
+    <t>0.067*"exchange" + 0.063*"bank" + 0.035*"foreign" + 0.032*"rate" + 0.019*"transaction" + 0.019*"central" + 0.016*"market" + 0.014*"commercial" + 0.011*"authorize" + 0.011*"import"</t>
+  </si>
+  <si>
+    <t>0.050*"percent" + 0.029*"investment" + 0.022*"foreign" + 0.020*"capital" + 0.016*"tax" + 0.016*"control" + 0.009*"value" + 0.009*"company" + 0.009*"rate" + 0.009*"redistribution"</t>
   </si>
 </sst>
 </file>
